--- a/miniDOT_Logger_Names.xlsx
+++ b/miniDOT_Logger_Names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag326\Documents\HolgersonLab_Helpful_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E2FA3-243E-46D8-B394-3922A6FE1364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ABE92D-4E80-4D3D-853C-7F2F5D252BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{CE2B2E27-0FBE-46D2-AFE3-1694D6DAD60B}"/>
+    <workbookView xWindow="14070" yWindow="1245" windowWidth="14415" windowHeight="14355" xr2:uid="{CE2B2E27-0FBE-46D2-AFE3-1694D6DAD60B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>mini01</t>
   </si>
@@ -127,13 +127,76 @@
   </si>
   <si>
     <t>Serial_Number</t>
+  </si>
+  <si>
+    <t>Short_Serial_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7392-092396 </t>
+  </si>
+  <si>
+    <t>7392-357595</t>
+  </si>
+  <si>
+    <t>7392-533284</t>
+  </si>
+  <si>
+    <t>7392-649975</t>
+  </si>
+  <si>
+    <t>7392-688377</t>
+  </si>
+  <si>
+    <t>7450-000769</t>
+  </si>
+  <si>
+    <t>7450-056085</t>
+  </si>
+  <si>
+    <t>7450-088169</t>
+  </si>
+  <si>
+    <t>7450-145843</t>
+  </si>
+  <si>
+    <t>7450-543142</t>
+  </si>
+  <si>
+    <t>7450-913951</t>
+  </si>
+  <si>
+    <t>7450-917361</t>
+  </si>
+  <si>
+    <t>7450-919756</t>
+  </si>
+  <si>
+    <t>mini12</t>
+  </si>
+  <si>
+    <t>mini13</t>
+  </si>
+  <si>
+    <t>mini14</t>
+  </si>
+  <si>
+    <t>7450-970350</t>
+  </si>
+  <si>
+    <t>7450-995244</t>
+  </si>
+  <si>
+    <t>7450-891061</t>
+  </si>
+  <si>
+    <t>7450-858871</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +224,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,15 +250,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,23 +593,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D18730-F269-46C5-9A60-F42B874AAD76}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,23 +623,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>913951</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>917361</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -561,7 +653,7 @@
         <v>960183</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +661,7 @@
         <v>981145</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -577,15 +669,18 @@
         <v>936968</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>919756</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -593,7 +688,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -601,7 +696,7 @@
         <v>654299</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -609,171 +704,237 @@
         <v>542721</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="9">
         <v>543142</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="9">
+        <v>891061</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9">
+        <v>970350</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9">
+        <v>858871</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B16" s="9">
         <v>70857</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B17" s="5">
         <v>92396</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B18" s="5">
         <v>941101</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B19" s="5">
         <v>357595</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B20" s="5">
         <v>94016</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B21" s="5">
         <v>149054</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B22" s="5">
         <v>591332</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B23" s="5">
         <v>964663</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B24" s="4">
         <v>142553</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B25" s="5">
         <v>183002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B26" s="5">
         <v>87534</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B27" s="7">
         <v>649975</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="C27" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B28" s="5">
         <v>769</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="C28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B29" s="7">
         <v>533284</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B30" s="7">
         <v>688377</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="C30" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B31" s="5">
         <v>56085</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="C31" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B32" s="7">
         <v>145843</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="C32" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B33" s="5">
         <v>995244</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="C33" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B34" s="7">
         <v>88169</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="C34" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B35" s="5">
         <v>8204</v>
       </c>
     </row>
